--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H2">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J2">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.37962732035915</v>
+        <v>4.695610666666666</v>
       </c>
       <c r="N2">
-        <v>3.37962732035915</v>
+        <v>14.086832</v>
       </c>
       <c r="O2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="P2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="Q2">
-        <v>14.13507171800468</v>
+        <v>20.08848764351111</v>
       </c>
       <c r="R2">
-        <v>14.13507171800468</v>
+        <v>180.7963887916</v>
       </c>
       <c r="S2">
-        <v>0.1339728917785059</v>
+        <v>0.1741377484309309</v>
       </c>
       <c r="T2">
-        <v>0.1339728917785059</v>
+        <v>0.1741377484309309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H3">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J3">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.3026797696485</v>
+        <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>15.3026797696485</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="P3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="Q3">
-        <v>64.00246403460085</v>
+        <v>66.37314475071389</v>
       </c>
       <c r="R3">
-        <v>64.00246403460085</v>
+        <v>597.358302756425</v>
       </c>
       <c r="S3">
-        <v>0.6066184423205524</v>
+        <v>0.5753578959391207</v>
       </c>
       <c r="T3">
-        <v>0.6066184423205524</v>
+        <v>0.5753578959391207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.18243503739417</v>
+        <v>4.278141666666667</v>
       </c>
       <c r="H4">
-        <v>4.18243503739417</v>
+        <v>12.834425</v>
       </c>
       <c r="I4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340192</v>
       </c>
       <c r="J4">
-        <v>0.969058883370374</v>
+        <v>0.9663225094340191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.76336870155338</v>
+        <v>5.846719333333333</v>
       </c>
       <c r="N4">
-        <v>5.76336870155338</v>
+        <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="P4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="Q4">
-        <v>24.1049151907978</v>
+        <v>25.01309359323889</v>
       </c>
       <c r="R4">
-        <v>24.1049151907978</v>
+        <v>225.11784233915</v>
       </c>
       <c r="S4">
-        <v>0.2284675492713158</v>
+        <v>0.2168268650639676</v>
       </c>
       <c r="T4">
-        <v>0.2284675492713158</v>
+        <v>0.2168268650639675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H5">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J5">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.37962732035915</v>
+        <v>4.695610666666666</v>
       </c>
       <c r="N5">
-        <v>3.37962732035915</v>
+        <v>14.086832</v>
       </c>
       <c r="O5">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="P5">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="Q5">
-        <v>0.4513192233208731</v>
+        <v>0.7001077243822221</v>
       </c>
       <c r="R5">
-        <v>0.4513192233208731</v>
+        <v>6.30096951944</v>
       </c>
       <c r="S5">
-        <v>0.004277625375363988</v>
+        <v>0.006068907970899612</v>
       </c>
       <c r="T5">
-        <v>0.004277625375363988</v>
+        <v>0.00606890797089961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H6">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J6">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.3026797696485</v>
+        <v>15.51448033333333</v>
       </c>
       <c r="N6">
-        <v>15.3026797696485</v>
+        <v>46.543441</v>
       </c>
       <c r="O6">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="P6">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="Q6">
-        <v>2.043537021600317</v>
+        <v>2.313183160232778</v>
       </c>
       <c r="R6">
-        <v>2.043537021600317</v>
+        <v>20.818648442095</v>
       </c>
       <c r="S6">
-        <v>0.01936874249399821</v>
+        <v>0.02005190805697092</v>
       </c>
       <c r="T6">
-        <v>0.01936874249399821</v>
+        <v>0.02005190805697092</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.133541121709512</v>
+        <v>0.1490983333333333</v>
       </c>
       <c r="H7">
-        <v>0.133541121709512</v>
+        <v>0.447295</v>
       </c>
       <c r="I7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598092</v>
       </c>
       <c r="J7">
-        <v>0.03094111662962593</v>
+        <v>0.03367749056598091</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.76336870155338</v>
+        <v>5.846719333333333</v>
       </c>
       <c r="N7">
-        <v>5.76336870155338</v>
+        <v>17.540158</v>
       </c>
       <c r="O7">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="P7">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="Q7">
-        <v>0.7696467212309319</v>
+        <v>0.8717361080677777</v>
       </c>
       <c r="R7">
-        <v>0.7696467212309319</v>
+        <v>7.845624972609999</v>
       </c>
       <c r="S7">
-        <v>0.007294748760263729</v>
+        <v>0.007556674538110385</v>
       </c>
       <c r="T7">
-        <v>0.007294748760263729</v>
+        <v>0.007556674538110382</v>
       </c>
     </row>
   </sheetData>
